--- a/pageObjectFramework/excelData/data.xlsx
+++ b/pageObjectFramework/excelData/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11925" windowHeight="3420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14820" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -93,12 +94,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>sanjai1184@gmail.com</t>
-  </si>
-  <si>
-    <t>sanajayjai1!@#</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -120,7 +115,13 @@
     <t>NewPassword</t>
   </si>
   <si>
-    <t>sanajayjai1!@#$</t>
+    <t>xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -483,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,7 +608,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -621,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -629,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -643,18 +644,18 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -665,13 +666,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -679,27 +680,27 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId1" display="sanjai1184@gmail.com"/>
+    <hyperlink ref="C15" r:id="rId2" display="sanajayjai1!@#"/>
+    <hyperlink ref="B16" r:id="rId3" display="sanjai1184@gmail.com"/>
     <hyperlink ref="C16" r:id="rId4" display="sanajayjai1!@#"/>
-    <hyperlink ref="C20" r:id="rId5"/>
-    <hyperlink ref="D20" r:id="rId6"/>
-    <hyperlink ref="B20" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId5" display="sanajayjai1!@#"/>
+    <hyperlink ref="D20" r:id="rId6" display="sanajayjai1!@#$"/>
+    <hyperlink ref="B20" r:id="rId7" display="sanjai1184@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
